--- a/matrix/reviewed/windows/login_reviewed/login_reviewed.xlsx
+++ b/matrix/reviewed/windows/login_reviewed/login_reviewed.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases_bk\matrix\reviewed\login_reviewed\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D604A75-EB89-4494-9D58-3CA03EE24BCC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\matrix\reviewed\windows\login_reviewed\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079FE86F-4E36-432A-8207-A3A334C572BE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
   <si>
     <t>T001</t>
   </si>
@@ -230,10 +230,66 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp100.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp101.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp102.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp103.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp104.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp105.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp106.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp107.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp108.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp109.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp110.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp111.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp112.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp113.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
@@ -534,7 +590,87 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp80.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp81.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp82.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp83.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp84.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp85.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp86.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp87.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp88.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp89.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp90.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp91.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp92.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp93.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp94.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp95.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp96.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp97.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp98.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp99.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
@@ -5766,62 +5902,6 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="619125" cy="200025"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="135" name="Picture 134">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000087000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2571750" y="581025"/>
-          <a:ext cx="619125" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
@@ -5846,6 +5926,2284 @@
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A5040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1190" name="Check Box 166" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1190"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D1A6B30-6323-4B76-B759-F2B4ED030891}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1191" name="Check Box 167" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1191"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C35E881-DE93-41C7-BBEB-4028C853F428}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1192" name="Check Box 168" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1192"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DA529D7-B85C-4874-882B-99C38B78FD7A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1193" name="Check Box 169" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1193"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5424290-D2C2-436D-A28F-C602F9A1E1AC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1194" name="Check Box 170" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1194"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BB1863E-48B8-419B-B566-3196E01E4D90}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1195" name="Check Box 171" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1195"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C7C5322-B36B-457C-BA54-3B998C95DF81}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1196" name="Check Box 172" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1196"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45572B17-2295-4C53-90BC-A36F9EF5E567}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1197" name="Check Box 173" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1197"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C878566-99A9-44E5-9A7F-70A5244C0A08}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1198" name="Check Box 174" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1198"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A4A629B-793A-4BFF-AAE5-8C4D0EFC9DE9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1199" name="Check Box 175" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1199"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B65DB017-BE07-4534-A785-3A0A5938D6DE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1200" name="Check Box 176" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1200"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5688B101-1337-45DF-BF02-99F1E9FD375A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1201" name="Check Box 177" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1201"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93130D3F-DD50-4D6A-A0D2-FDB94BF0DF38}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1202" name="Check Box 178" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1202"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF855E12-BABC-4764-A6A8-69D37E4303CC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1203" name="Check Box 179" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1203"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5E384D7-52C0-480A-9CC6-B0A79BA08C0F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1204" name="Check Box 180" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1204"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5DE20ED-4A09-4E8D-9975-FAB573AF4F03}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1205" name="Check Box 181" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1205"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8100AF2-C907-42A0-9A76-AB3E96E2312F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1206" name="Check Box 182" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1206"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1849CF2-217D-4ED1-B435-69871405C20F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1207" name="Check Box 183" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1207"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F74083EC-7BD9-478E-9DBB-E7BA07F0DECF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1208" name="Check Box 184" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1208"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8D77A0C-2C6B-45C0-A247-960DC6F3CB6D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1209" name="Check Box 185" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1209"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E518D83-8A8F-4E5A-B8F5-6EC326BB6B81}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1210" name="Check Box 186" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1210"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27AC373A-B3F5-412B-8E9C-E77B456E70AC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1211" name="Check Box 187" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1211"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAE54D07-E42D-44D5-9281-F1240A84F2E9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1212" name="Check Box 188" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1212"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D270D6F-0790-4FA9-94B4-78EFCF9B594E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1213" name="Check Box 189" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1213"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E11B7451-CB4C-498E-88CB-82C3B9671D5B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1214" name="Check Box 190" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1214"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2F6506A-9B80-4790-B4E9-61EDEA0A0EE8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1215" name="Check Box 191" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1215"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B90CF212-44B0-42F3-ACED-65D48C88077D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1216" name="Check Box 192" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1216"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A2510E7-3C3F-4B4D-A1A6-63CEB2F395A9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1217" name="Check Box 193" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1217"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C47D00AC-77CA-4689-834D-78D9D8E3D4FC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1218" name="Check Box 194" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1218"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{230E6E26-64FA-41BF-97FC-3D7E641F9A56}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1219" name="Check Box 195" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1219"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1914AD52-EA06-4EAD-8896-C2D9AEC8740D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1220" name="Check Box 196" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1220"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E416FF7-7D9D-46CF-91CC-9AF14C506582}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1221" name="Check Box 197" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1221"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35AE7871-B132-4E68-948B-D56F51BF5DD4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1222" name="Check Box 198" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1222"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89E18260-76B7-49C3-B0B5-4C4F3E2EAE8F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1223" name="Check Box 199" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1223"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAD1D91A-9705-4847-963E-0204F62A9D23}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6155,10 +8513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:O7"/>
+  <dimension ref="B1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6304,6 +8662,145 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
+    </row>
+    <row r="9" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3">
+        <v>45313</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+    </row>
+    <row r="12" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+    </row>
+    <row r="14" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8050,6 +10547,754 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1190" r:id="rId82" name="Check Box 166">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1191" r:id="rId83" name="Check Box 167">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1192" r:id="rId84" name="Check Box 168">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1193" r:id="rId85" name="Check Box 169">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1194" r:id="rId86" name="Check Box 170">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1195" r:id="rId87" name="Check Box 171">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1196" r:id="rId88" name="Check Box 172">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1197" r:id="rId89" name="Check Box 173">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1198" r:id="rId90" name="Check Box 174">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1199" r:id="rId91" name="Check Box 175">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1200" r:id="rId92" name="Check Box 176">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1201" r:id="rId93" name="Check Box 177">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1202" r:id="rId94" name="Check Box 178">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1203" r:id="rId95" name="Check Box 179">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1204" r:id="rId96" name="Check Box 180">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1205" r:id="rId97" name="Check Box 181">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1206" r:id="rId98" name="Check Box 182">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1207" r:id="rId99" name="Check Box 183">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1208" r:id="rId100" name="Check Box 184">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1209" r:id="rId101" name="Check Box 185">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1210" r:id="rId102" name="Check Box 186">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1211" r:id="rId103" name="Check Box 187">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1212" r:id="rId104" name="Check Box 188">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1213" r:id="rId105" name="Check Box 189">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1214" r:id="rId106" name="Check Box 190">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1215" r:id="rId107" name="Check Box 191">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1216" r:id="rId108" name="Check Box 192">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1217" r:id="rId109" name="Check Box 193">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1218" r:id="rId110" name="Check Box 194">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1219" r:id="rId111" name="Check Box 195">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1220" r:id="rId112" name="Check Box 196">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1221" r:id="rId113" name="Check Box 197">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1222" r:id="rId114" name="Check Box 198">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1223" r:id="rId115" name="Check Box 199">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>
